--- a/画面イメージ.xlsx
+++ b/画面イメージ.xlsx
@@ -1997,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:DT39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="DC39" sqref="DC39"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BQ50" sqref="BQ50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
